--- a/table.xlsx
+++ b/table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melhs/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melhs/Documents/GitHub/ebola-mutation-rates-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DCE81A-5A19-BA45-A9C2-460C4319B747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254045D8-DC6B-D444-99CB-1D7065D9E5BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="560" windowWidth="28040" windowHeight="16660" xr2:uid="{F2D6EE3F-4319-5541-9053-AF05C808FA98}"/>
+    <workbookView xWindow="1700" yWindow="2480" windowWidth="28040" windowHeight="16540" xr2:uid="{F2D6EE3F-4319-5541-9053-AF05C808FA98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>dataset</t>
   </si>
@@ -84,9 +84,6 @@
     <t>2014 large dataset subsets (time)</t>
   </si>
   <si>
-    <t>2014-2014.5</t>
-  </si>
-  <si>
     <t>2014.5-2015</t>
   </si>
   <si>
@@ -120,32 +117,117 @@
     <t>rate estimate ucld+het</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>slope (rate)</t>
   </si>
   <si>
-    <t>0.0000042176 (HPD interval: 1.1243e-7, 1.2063e-5)</t>
-  </si>
-  <si>
-    <t>8.1939e-6 (HPD interval: 2.0923e-7, 2.0541e-5)</t>
-  </si>
-  <si>
     <t>2.8285e-3 (HPD interval: 1.8418e-3, 3.7807e-3)</t>
   </si>
   <si>
-    <t>8.4538e-3 (HPD range: 4.7379e-3, 0.0115)</t>
+    <t>2012-2014.5</t>
+  </si>
+  <si>
+    <t>2014.4-2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000037547 (HPD: 1.7449e-8, 1.0842e-5) </t>
+  </si>
+  <si>
+    <t>5.5287E-4 (HPD: 4.2929E-4, 67319E-4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1286E-4 (HPD: 1.5809E-4, 2.6963E-4) </t>
+  </si>
+  <si>
+    <t>2.7001E-4 (HPD: 2.0917E-4, 3.345E-4)</t>
+  </si>
+  <si>
+    <t>2.4286E-3 (HPD: 1.8156E-3, 3.0236E-3)</t>
+  </si>
+  <si>
+    <t>5.1221E-4 (HPD: 3.9221E-4, 6.3615E-4)</t>
+  </si>
+  <si>
+    <t>1.1522E-3 (HPD: 9.3935E-4, 1.3656E-3)</t>
+  </si>
+  <si>
+    <t>7.4191E-6 (HPD: 3.8448E-7, 1.8103E-5)</t>
+  </si>
+  <si>
+    <t>8.4538E-3 (HPD: 4.7379E-3, 0.0115)</t>
+  </si>
+  <si>
+    <t>5.1091E-4 (HPD: 4.1058E-4, 6.1743E-4)</t>
+  </si>
+  <si>
+    <t>3.1731E-4 (HPD: 2.4682E-4, 3.9418E-4)</t>
+  </si>
+  <si>
+    <t>2.9139E-3 (HPD: 2.1007E-3, 3.6949E-3)</t>
+  </si>
+  <si>
+    <t>1.4214E-3 (HPD: 1.1297E-3, 1.6894E-3)</t>
+  </si>
+  <si>
+    <t>1.0415E-3 (HPD: 7.738E-4, 1.2926E-3)</t>
+  </si>
+  <si>
+    <t>1.3723E-3 (HPD: 1.0005E-3, 1.7873E-3)</t>
+  </si>
+  <si>
+    <t>1.05E-3 (HPD: 8.3272E-4, 1.2887E-3)</t>
+  </si>
+  <si>
+    <t>1.3433E-3 (HPD:1.0612E-3, 1.6542E-3)</t>
+  </si>
+  <si>
+    <t>1.3062E-3 (HPD: 8.8845E-4, 1.7329E-3)</t>
+  </si>
+  <si>
+    <t>1.7132E-3 (HPD: 1.0782E-3, 2.387E-3)</t>
+  </si>
+  <si>
+    <t>5.8178E-3 (HPD: 5.1648E-3, 6.5527E-3)</t>
+  </si>
+  <si>
+    <t>9.7686E-4 (HPD:8.7255E-4, 1.0891E-3)</t>
+  </si>
+  <si>
+    <t>1.1001E-3 (HPD: 9.6767E-4, 1.2314E-3)</t>
+  </si>
+  <si>
+    <t>5.8354E-4 (HPD: 4.7957E-4, 6.8801E-4)</t>
+  </si>
+  <si>
+    <t>5.1916E-4 (HPD: 4.1493E-4, 6.2218E-4)</t>
+  </si>
+  <si>
+    <t>lsd_rate</t>
+  </si>
+  <si>
+    <t>lower95CI</t>
+  </si>
+  <si>
+    <t>upper95CI</t>
+  </si>
+  <si>
+    <t>pval</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -171,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -185,13 +267,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,19 +590,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D689EE26-5D76-804E-8898-5E1C9A520A64}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,20 +626,31 @@
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="L1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -575,10 +671,10 @@
         <v>8</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="5" t="s">
         <v>32</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="J2" s="6">
         <v>6.1238000000000001E-2</v>
@@ -586,11 +682,20 @@
       <c r="K2" s="6">
         <v>5.6574000000000001E-4</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="L2" s="9">
+        <v>3.4370000000000001E-4</v>
+      </c>
+      <c r="M2" s="9">
+        <v>1E-10</v>
+      </c>
+      <c r="N2" s="9">
+        <v>1.668E-3</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -611,10 +716,10 @@
         <v>10</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J3" s="5">
         <v>0.49880000000000002</v>
@@ -622,11 +727,20 @@
       <c r="K3" s="6">
         <v>1.1557E-3</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="L3" s="9">
+        <v>1.0939999999999999E-3</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1E-10</v>
+      </c>
+      <c r="N3" s="9">
+        <v>6.4700000000000001E-3</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -646,17 +760,32 @@
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="J4" s="6">
         <v>1.4027E-3</v>
       </c>
       <c r="K4" s="6">
         <v>3.1451000000000001E-5</v>
       </c>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="L4" s="9">
+        <v>1.9599999999999999E-4</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1E-10</v>
+      </c>
+      <c r="N4" s="9">
+        <v>5.017E-4</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -680,7 +809,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -704,15 +833,15 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="1"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -720,7 +849,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -738,13 +867,30 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J8" s="5">
+        <v>0.13339999999999999</v>
+      </c>
+      <c r="K8" s="6">
+        <v>2.4842000000000001E-4</v>
+      </c>
+      <c r="L8" s="9">
+        <v>2.016E-5</v>
+      </c>
+      <c r="M8" s="9">
+        <v>1E-10</v>
+      </c>
+      <c r="N8" s="9">
+        <v>1.3770000000000001E-4</v>
+      </c>
+      <c r="O8">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -764,11 +910,26 @@
       <c r="G9" s="1"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J9" s="6">
+        <v>3.0433999999999999E-2</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1.8102E-4</v>
+      </c>
+      <c r="L9" s="9">
+        <v>7.9690000000000004E-5</v>
+      </c>
+      <c r="M9" s="9">
+        <v>1E-10</v>
+      </c>
+      <c r="N9" s="9">
+        <v>2.521E-4</v>
+      </c>
+      <c r="O9">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -783,22 +944,43 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="G10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="6">
+        <v>2.9493999999999999E-4</v>
+      </c>
+      <c r="K10" s="6">
+        <v>8.9363999999999997E-6</v>
+      </c>
+      <c r="L10" s="9">
+        <v>2.482E-5</v>
+      </c>
+      <c r="M10" s="9">
+        <v>1E-10</v>
+      </c>
+      <c r="N10" s="9">
+        <v>2.396E-4</v>
+      </c>
+      <c r="O10">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="1"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -806,9 +988,9 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1">
         <v>132</v>
@@ -823,16 +1005,37 @@
         <v>654</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="G12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.43380000000000002</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1.2195999999999999E-3</v>
+      </c>
+      <c r="L12" s="9">
+        <v>1E-10</v>
+      </c>
+      <c r="M12" s="9">
+        <v>1E-10</v>
+      </c>
+      <c r="N12" s="9">
+        <v>1.6620000000000001E-3</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1">
         <v>1037</v>
@@ -848,219 +1051,448 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="5"/>
+      <c r="H13" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="J13" s="6">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="K13" s="6">
+        <v>4.9395000000000005E-4</v>
+      </c>
+      <c r="L13" s="9">
+        <v>1.7870000000000001E-4</v>
+      </c>
+      <c r="M13" s="9">
+        <v>1E-10</v>
+      </c>
+      <c r="N13" s="9">
+        <v>6.4159999999999998E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2">
+        <v>640</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2015.0023118957499</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2015.4997898276599</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3634</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.1244</v>
+      </c>
+      <c r="K14" s="6">
+        <v>7.0952999999999999E-4</v>
+      </c>
+      <c r="L14" s="9">
+        <v>2.186E-4</v>
+      </c>
+      <c r="M14" s="9">
+        <v>1E-10</v>
+      </c>
+      <c r="N14" s="9">
+        <v>1.2080000000000001E-3</v>
+      </c>
+      <c r="O14">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="1">
-        <v>640</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2015.0023118957499</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2015.4997898276599</v>
-      </c>
-      <c r="E15" s="1">
-        <v>3634</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="B15" s="2">
+        <v>195</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2015.5025220681</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2015.9062631357699</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4150</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="6">
+        <v>1.8467000000000001E-2</v>
+      </c>
+      <c r="K15" s="6">
+        <v>7.8492000000000004E-4</v>
+      </c>
+      <c r="L15" s="6">
+        <v>2.186E-4</v>
+      </c>
+      <c r="M15" s="9">
+        <v>1E-10</v>
+      </c>
+      <c r="N15" s="9">
+        <v>1.2080000000000001E-3</v>
+      </c>
+      <c r="O15">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="1">
-        <v>195</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2015.5025220681</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2015.9062631357699</v>
-      </c>
-      <c r="E16" s="1">
-        <v>4150</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="B17" s="2">
+        <v>1302</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2014.45292139554</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2016.1315678856699</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3464</v>
+      </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="2"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1302</v>
-      </c>
-      <c r="C18" s="1">
+    <row r="18" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2">
+        <v>60</v>
+      </c>
+      <c r="C18" s="2">
         <v>2014.45292139554</v>
       </c>
-      <c r="D18" s="1">
-        <v>2016.1315678856699</v>
-      </c>
-      <c r="E18" s="1">
-        <v>3464</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="D18" s="2">
+        <v>2014.4997898276599</v>
+      </c>
+      <c r="E18" s="2">
+        <v>449</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1">
-        <v>22</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="J18" s="6">
+        <v>4.7551999999999997E-2</v>
+      </c>
+      <c r="K18" s="6">
+        <v>8.6202999999999996E-4</v>
+      </c>
+      <c r="L18" s="9">
+        <v>1.6239999999999999E-4</v>
+      </c>
+      <c r="M18" s="9">
+        <v>1E-10</v>
+      </c>
+      <c r="N18" s="9">
+        <v>2.758E-3</v>
+      </c>
+      <c r="O18">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2">
+        <v>200</v>
+      </c>
+      <c r="C19" s="2">
         <v>2014.5025220681</v>
       </c>
-      <c r="D19" s="1">
-        <v>2017.4255989911701</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1859</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="D19" s="2">
+        <v>2014.9995796553201</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2054</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="J19" s="6">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="K19" s="6">
+        <v>4.9395000000000005E-4</v>
+      </c>
+      <c r="L19" s="9">
+        <v>2.3250000000000001E-4</v>
+      </c>
+      <c r="M19" s="9">
+        <v>1E-10</v>
+      </c>
+      <c r="N19" s="9">
+        <v>7.5020000000000002E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>200</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2015.00504413619</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2015.4997898276599</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1967</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="6">
+        <v>6.062E-2</v>
+      </c>
+      <c r="K20" s="6">
+        <v>5.3863000000000001E-4</v>
+      </c>
+      <c r="L20" s="9">
+        <v>3.3780000000000003E-4</v>
+      </c>
+      <c r="M20" s="9">
+        <v>1E-10</v>
+      </c>
+      <c r="N20" s="9">
+        <v>6.8199999999999999E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>116</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2015.5025220681</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2015.72509457755</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1347</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.31509999999999999</v>
+      </c>
+      <c r="K21" s="6">
+        <v>3.2702999999999999E-3</v>
+      </c>
+      <c r="L21" s="9">
+        <v>9.567E-4</v>
+      </c>
+      <c r="M21" s="9">
+        <v>1E-10</v>
+      </c>
+      <c r="N21" s="9">
+        <v>2.8770000000000002E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2014.5025220681</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2017.4255989911701</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1859</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="3">
+        <v>0.97840000000000005</v>
+      </c>
+      <c r="K22" s="6">
+        <v>2.1140999999999998E-3</v>
+      </c>
+      <c r="L22" s="9">
+        <v>6.1510000000000002E-3</v>
+      </c>
+      <c r="M22" s="9">
+        <v>4.0330000000000001E-3</v>
+      </c>
+      <c r="N22" s="9">
+        <v>1.0160000000000001E-2</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2">
+        <v>409</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2014.2580916351401</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2015.8047498949099</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4310</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.69540000000000002</v>
+      </c>
+      <c r="K23" s="6">
+        <v>6.7712000000000002E-4</v>
+      </c>
+      <c r="L23" s="9">
+        <v>3.412E-4</v>
+      </c>
+      <c r="M23" s="9">
+        <v>9.3369999999999995E-5</v>
+      </c>
+      <c r="N23" s="9">
+        <v>6.1050000000000004E-4</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="1">
-        <v>409</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2014.2580916351401</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2015.8047498949099</v>
-      </c>
-      <c r="E20" s="1">
-        <v>4310</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="1">
+      <c r="B24" s="2">
         <v>253</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C24" s="2">
         <v>2014.31042454813</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D24" s="2">
         <v>2016.32681799075</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E24" s="2">
         <v>2191</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" s="6">
+        <v>6.1613000000000001E-2</v>
+      </c>
+      <c r="K24" s="6">
+        <v>1.7424000000000001E-4</v>
+      </c>
+      <c r="L24" s="9">
+        <v>2.2670000000000001E-4</v>
+      </c>
+      <c r="M24" s="9">
+        <v>1E-10</v>
+      </c>
+      <c r="N24" s="9">
+        <v>5.0509999999999997E-4</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A17:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melhs/Documents/GitHub/ebola-mutation-rates-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254045D8-DC6B-D444-99CB-1D7065D9E5BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D39CED-EA40-734F-8648-B20233FC10F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="2480" windowWidth="28040" windowHeight="16540" xr2:uid="{F2D6EE3F-4319-5541-9053-AF05C808FA98}"/>
+    <workbookView xWindow="2900" yWindow="1100" windowWidth="28040" windowHeight="16540" xr2:uid="{F2D6EE3F-4319-5541-9053-AF05C808FA98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D689EE26-5D76-804E-8898-5E1C9A520A64}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1112,9 +1112,6 @@
       <c r="N14" s="9">
         <v>1.2080000000000001E-3</v>
       </c>
-      <c r="O14">
-        <v>0.95</v>
-      </c>
     </row>
     <row r="15" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melhs/Documents/GitHub/ebola-mutation-rates-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D39CED-EA40-734F-8648-B20233FC10F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1EF268-941B-EB4E-8F12-A0716EBE5593}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="1100" windowWidth="28040" windowHeight="16540" xr2:uid="{F2D6EE3F-4319-5541-9053-AF05C808FA98}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16540" xr2:uid="{F2D6EE3F-4319-5541-9053-AF05C808FA98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
   <si>
     <t>dataset</t>
   </si>
@@ -54,15 +54,9 @@
     <t>best fitting model</t>
   </si>
   <si>
-    <t>early 2014</t>
-  </si>
-  <si>
     <t>Strict clock + Heterochronous</t>
   </si>
   <si>
-    <t>2018 public</t>
-  </si>
-  <si>
     <t>Relaxed clock + Isochronous</t>
   </si>
   <si>
@@ -211,13 +205,22 @@
   </si>
   <si>
     <t>pval</t>
+  </si>
+  <si>
+    <t>Mbala et al.</t>
+  </si>
+  <si>
+    <t>early 2014 (Sierra Leone)</t>
+  </si>
+  <si>
+    <t>2018 public (DRC)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -231,6 +234,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -253,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -268,14 +277,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,7 +603,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -626,33 +636,33 @@
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1">
         <v>72</v>
@@ -668,13 +678,13 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J2" s="6">
         <v>6.1238000000000001E-2</v>
@@ -682,13 +692,13 @@
       <c r="K2" s="6">
         <v>5.6574000000000001E-4</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="8">
         <v>3.4370000000000001E-4</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="8">
         <v>1E-10</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="8">
         <v>1.668E-3</v>
       </c>
       <c r="O2">
@@ -697,7 +707,7 @@
     </row>
     <row r="3" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1">
         <v>83</v>
@@ -713,13 +723,13 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J3" s="5">
         <v>0.49880000000000002</v>
@@ -727,13 +737,13 @@
       <c r="K3" s="6">
         <v>1.1557E-3</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>1.0939999999999999E-3</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>1E-10</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="8">
         <v>6.4700000000000001E-3</v>
       </c>
       <c r="O3">
@@ -742,7 +752,7 @@
     </row>
     <row r="4" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>245</v>
@@ -758,13 +768,13 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="J4" s="6">
         <v>1.4027E-3</v>
@@ -772,13 +782,13 @@
       <c r="K4" s="6">
         <v>3.1451000000000001E-5</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="8">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="8">
         <v>1E-10</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="8">
         <v>5.017E-4</v>
       </c>
       <c r="O4">
@@ -787,7 +797,7 @@
     </row>
     <row r="5" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
         <v>455</v>
@@ -811,7 +821,7 @@
     </row>
     <row r="6" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
         <v>2013</v>
@@ -834,14 +844,14 @@
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="A7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="1"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -865,10 +875,12 @@
       <c r="E8" s="1">
         <v>1675</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5">
@@ -877,13 +889,13 @@
       <c r="K8" s="6">
         <v>2.4842000000000001E-4</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="8">
         <v>2.016E-5</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="8">
         <v>1E-10</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="8">
         <v>1.3770000000000001E-4</v>
       </c>
       <c r="O8">
@@ -906,7 +918,9 @@
       <c r="E9" s="1">
         <v>1829</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -916,13 +930,13 @@
       <c r="K9" s="6">
         <v>1.8102E-4</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="8">
         <v>7.9690000000000004E-5</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <v>1E-10</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="8">
         <v>2.521E-4</v>
       </c>
       <c r="O9">
@@ -943,15 +957,17 @@
         <v>2019.7141656158001</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="G10" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J10" s="6">
         <v>2.9493999999999999E-4</v>
@@ -959,13 +975,13 @@
       <c r="K10" s="6">
         <v>8.9363999999999997E-6</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="8">
         <v>2.482E-5</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="8">
         <v>1E-10</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="8">
         <v>2.396E-4</v>
       </c>
       <c r="O10">
@@ -973,14 +989,14 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="A11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="1"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -990,7 +1006,7 @@
     </row>
     <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
         <v>132</v>
@@ -1006,13 +1022,13 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J12" s="7">
         <v>0.43380000000000002</v>
@@ -1020,13 +1036,13 @@
       <c r="K12" s="6">
         <v>1.2195999999999999E-3</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="8">
         <v>1E-10</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="8">
         <v>1E-10</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="8">
         <v>1.6620000000000001E-3</v>
       </c>
       <c r="O12">
@@ -1035,7 +1051,7 @@
     </row>
     <row r="13" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>1037</v>
@@ -1052,7 +1068,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="6">
@@ -1061,19 +1077,22 @@
       <c r="K13" s="6">
         <v>4.9395000000000005E-4</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="8">
         <v>1.7870000000000001E-4</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="8">
         <v>1E-10</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="8">
         <v>6.4159999999999998E-4</v>
+      </c>
+      <c r="O13">
+        <v>0.96</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
         <v>640</v>
@@ -1089,13 +1108,13 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J14" s="7">
         <v>0.1244</v>
@@ -1103,19 +1122,22 @@
       <c r="K14" s="6">
         <v>7.0952999999999999E-4</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="8">
         <v>2.186E-4</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="8">
         <v>1E-10</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="8">
         <v>1.2080000000000001E-3</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2">
         <v>195</v>
@@ -1131,13 +1153,13 @@
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J15" s="6">
         <v>1.8467000000000001E-2</v>
@@ -1148,10 +1170,10 @@
       <c r="L15" s="6">
         <v>2.186E-4</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="8">
         <v>1E-10</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="8">
         <v>1.2080000000000001E-3</v>
       </c>
       <c r="O15">
@@ -1160,7 +1182,7 @@
     </row>
     <row r="16" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1176,7 +1198,7 @@
     </row>
     <row r="17" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
         <v>1302</v>
@@ -1200,7 +1222,7 @@
     </row>
     <row r="18" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2">
         <v>60</v>
@@ -1224,13 +1246,13 @@
       <c r="K18" s="6">
         <v>8.6202999999999996E-4</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="8">
         <v>1.6239999999999999E-4</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="8">
         <v>1E-10</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="8">
         <v>2.758E-3</v>
       </c>
       <c r="O18">
@@ -1239,7 +1261,7 @@
     </row>
     <row r="19" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2">
         <v>200</v>
@@ -1263,19 +1285,22 @@
       <c r="K19" s="6">
         <v>4.9395000000000005E-4</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="8">
         <v>2.3250000000000001E-4</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="8">
         <v>1E-10</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="8">
         <v>7.5020000000000002E-4</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2">
         <v>200</v>
@@ -1291,13 +1316,13 @@
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J20" s="6">
         <v>6.062E-2</v>
@@ -1305,19 +1330,22 @@
       <c r="K20" s="6">
         <v>5.3863000000000001E-4</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="8">
         <v>3.3780000000000003E-4</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="8">
         <v>1E-10</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="8">
         <v>6.8199999999999999E-4</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2">
         <v>116</v>
@@ -1333,13 +1361,13 @@
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J21" s="3">
         <v>0.31509999999999999</v>
@@ -1347,19 +1375,22 @@
       <c r="K21" s="6">
         <v>3.2702999999999999E-3</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="8">
         <v>9.567E-4</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="8">
         <v>1E-10</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="8">
         <v>2.8770000000000002E-3</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>22</v>
@@ -1376,7 +1407,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="3">
@@ -1385,13 +1416,13 @@
       <c r="K22" s="6">
         <v>2.1140999999999998E-3</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="8">
         <v>6.1510000000000002E-3</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="8">
         <v>4.0330000000000001E-3</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22" s="8">
         <v>1.0160000000000001E-2</v>
       </c>
       <c r="O22">
@@ -1400,7 +1431,7 @@
     </row>
     <row r="23" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>409</v>
@@ -1417,10 +1448,10 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J23" s="3">
         <v>0.69540000000000002</v>
@@ -1428,13 +1459,13 @@
       <c r="K23" s="6">
         <v>6.7712000000000002E-4</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="8">
         <v>3.412E-4</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="8">
         <v>9.3369999999999995E-5</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N23" s="8">
         <v>6.1050000000000004E-4</v>
       </c>
       <c r="O23">
@@ -1443,7 +1474,7 @@
     </row>
     <row r="24" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>253</v>
@@ -1459,13 +1490,13 @@
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J24" s="6">
         <v>6.1613000000000001E-2</v>
@@ -1473,13 +1504,13 @@
       <c r="K24" s="6">
         <v>1.7424000000000001E-4</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="8">
         <v>2.2670000000000001E-4</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="8">
         <v>1E-10</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N24" s="8">
         <v>5.0509999999999997E-4</v>
       </c>
       <c r="O24">

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melhs/Documents/GitHub/ebola-mutation-rates-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1EF268-941B-EB4E-8F12-A0716EBE5593}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38B398A-306E-C44E-8CC2-EEC328EDD94F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16540" xr2:uid="{F2D6EE3F-4319-5541-9053-AF05C808FA98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>dataset</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>2018 public (DRC)</t>
+  </si>
+  <si>
+    <t>Gire et al.</t>
   </si>
 </sst>
 </file>
@@ -602,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D689EE26-5D76-804E-8898-5E1C9A520A64}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -676,7 +679,9 @@
       <c r="E2" s="1">
         <v>25</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melhs/Documents/GitHub/ebola-mutation-rates-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38B398A-306E-C44E-8CC2-EEC328EDD94F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789121D3-11B4-034A-81F4-CBD2C9C5693D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16540" xr2:uid="{F2D6EE3F-4319-5541-9053-AF05C808FA98}"/>
+    <workbookView xWindow="0" yWindow="7020" windowWidth="28040" windowHeight="16540" xr2:uid="{F2D6EE3F-4319-5541-9053-AF05C808FA98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -285,10 +285,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,15 +605,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D689EE26-5D76-804E-8898-5E1C9A520A64}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -849,14 +852,14 @@
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="1"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -880,7 +883,7 @@
       <c r="E8" s="1">
         <v>1675</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>58</v>
       </c>
       <c r="G8" s="1"/>
@@ -923,7 +926,7 @@
       <c r="E9" s="1">
         <v>1829</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>58</v>
       </c>
       <c r="G9" s="1"/>
@@ -962,7 +965,7 @@
         <v>2019.7141656158001</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>58</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -994,14 +997,14 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
       <c r="G11" s="1"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -1077,10 +1080,10 @@
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="6">
-        <v>5.7000000000000002E-2</v>
+        <v>0.1152</v>
       </c>
       <c r="K13" s="6">
-        <v>4.9395000000000005E-4</v>
+        <v>4.4113000000000003E-4</v>
       </c>
       <c r="L13" s="8">
         <v>1.7870000000000001E-4</v>

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melhs/Documents/GitHub/ebola-mutation-rates-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789121D3-11B4-034A-81F4-CBD2C9C5693D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0381898D-FEFB-4546-BEA1-F6A6ABA85F93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7020" windowWidth="28040" windowHeight="16540" xr2:uid="{F2D6EE3F-4319-5541-9053-AF05C808FA98}"/>
+    <workbookView xWindow="6440" yWindow="460" windowWidth="19920" windowHeight="16200" xr2:uid="{F2D6EE3F-4319-5541-9053-AF05C808FA98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
   <si>
     <t>dataset</t>
   </si>
@@ -120,9 +120,6 @@
     <t>2012-2014.5</t>
   </si>
   <si>
-    <t>2014.4-2015</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.0000037547 (HPD: 1.7449e-8, 1.0842e-5) </t>
   </si>
   <si>
@@ -217,6 +214,12 @@
   </si>
   <si>
     <t>Gire et al.</t>
+  </si>
+  <si>
+    <t>9.3975E-4 (HPD: 1.1355E-5, 2.2954E-3)</t>
+  </si>
+  <si>
+    <t>2.1321E-4 (HPD: 1.001E-4, 3.5338E-4)</t>
   </si>
 </sst>
 </file>
@@ -605,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D689EE26-5D76-804E-8898-5E1C9A520A64}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="93" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -654,21 +657,21 @@
         <v>26</v>
       </c>
       <c r="L1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1">
         <v>72</v>
@@ -683,16 +686,16 @@
         <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J2" s="6">
         <v>6.1238000000000001E-2</v>
@@ -715,7 +718,7 @@
     </row>
     <row r="3" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1">
         <v>83</v>
@@ -737,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" s="5">
         <v>0.49880000000000002</v>
@@ -779,10 +782,10 @@
         <v>10</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" s="6">
         <v>1.4027E-3</v>
@@ -884,11 +887,11 @@
         <v>1675</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5">
@@ -927,7 +930,7 @@
         <v>1829</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="5"/>
@@ -966,16 +969,16 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J10" s="6">
         <v>2.9493999999999999E-4</v>
@@ -1033,10 +1036,10 @@
         <v>8</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J12" s="7">
         <v>0.43380000000000002</v>
@@ -1076,7 +1079,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="6">
@@ -1119,10 +1122,10 @@
         <v>10</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J14" s="7">
         <v>0.1244</v>
@@ -1164,10 +1167,10 @@
         <v>10</v>
       </c>
       <c r="H15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="J15" s="6">
         <v>1.8467000000000001E-2</v>
@@ -1269,7 +1272,7 @@
     </row>
     <row r="19" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2">
         <v>200</v>
@@ -1285,7 +1288,9 @@
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="5"/>
+      <c r="H19" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="I19" s="5"/>
       <c r="J19" s="6">
         <v>5.7000000000000002E-2</v>
@@ -1327,10 +1332,10 @@
         <v>10</v>
       </c>
       <c r="H20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="J20" s="6">
         <v>6.062E-2</v>
@@ -1372,10 +1377,10 @@
         <v>10</v>
       </c>
       <c r="H21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="J21" s="3">
         <v>0.31509999999999999</v>
@@ -1415,9 +1420,11 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I22" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="J22" s="3">
         <v>0.97840000000000005</v>
       </c>
@@ -1456,10 +1463,10 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="J23" s="3">
         <v>0.69540000000000002</v>
@@ -1501,10 +1508,10 @@
         <v>10</v>
       </c>
       <c r="H24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="J24" s="6">
         <v>6.1613000000000001E-2</v>

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melhs/Documents/GitHub/ebola-mutation-rates-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0381898D-FEFB-4546-BEA1-F6A6ABA85F93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656D3014-13A0-4843-9668-C9330DBF0AD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="460" windowWidth="19920" windowHeight="16200" xr2:uid="{F2D6EE3F-4319-5541-9053-AF05C808FA98}"/>
+    <workbookView xWindow="12380" yWindow="460" windowWidth="19920" windowHeight="16200" xr2:uid="{F2D6EE3F-4319-5541-9053-AF05C808FA98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -268,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -289,6 +289,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -608,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D689EE26-5D76-804E-8898-5E1C9A520A64}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="93" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="93" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -855,14 +858,14 @@
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="1"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -1000,14 +1003,14 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="1"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -1065,7 +1068,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="1">
-        <v>1037</v>
+        <v>200</v>
       </c>
       <c r="C13" s="1">
         <v>2014.5025220681</v>
@@ -1073,8 +1076,8 @@
       <c r="D13" s="1">
         <v>2014.9995796553201</v>
       </c>
-      <c r="E13" s="1">
-        <v>4278</v>
+      <c r="E13" s="12">
+        <v>2743</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1106,7 +1109,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="2">
-        <v>640</v>
+        <v>200</v>
       </c>
       <c r="C14" s="2">
         <v>2015.0023118957499</v>
@@ -1115,7 +1118,7 @@
         <v>2015.4997898276599</v>
       </c>
       <c r="E14" s="2">
-        <v>3634</v>
+        <v>1983</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melhs/Documents/GitHub/ebola-mutation-rates-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656D3014-13A0-4843-9668-C9330DBF0AD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467DD24A-19DA-3E46-BAA5-9569EB6581BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="460" windowWidth="19920" windowHeight="16200" xr2:uid="{F2D6EE3F-4319-5541-9053-AF05C808FA98}"/>
+    <workbookView xWindow="7140" yWindow="460" windowWidth="19920" windowHeight="16200" xr2:uid="{F2D6EE3F-4319-5541-9053-AF05C808FA98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
     <t>dataset</t>
   </si>
@@ -72,9 +72,6 @@
     <t>2014 large</t>
   </si>
   <si>
-    <t>Ebola 2018-2019 subsets</t>
-  </si>
-  <si>
     <t>2014 large dataset subsets (time)</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>2.4286E-3 (HPD: 1.8156E-3, 3.0236E-3)</t>
   </si>
   <si>
-    <t>5.1221E-4 (HPD: 3.9221E-4, 6.3615E-4)</t>
-  </si>
-  <si>
     <t>1.1522E-3 (HPD: 9.3935E-4, 1.3656E-3)</t>
   </si>
   <si>
@@ -220,6 +214,12 @@
   </si>
   <si>
     <t>2.1321E-4 (HPD: 1.001E-4, 3.5338E-4)</t>
+  </si>
+  <si>
+    <t>Ebola 2018-2019 subsets (DRC)</t>
+  </si>
+  <si>
+    <t>GenBank</t>
   </si>
 </sst>
 </file>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D689EE26-5D76-804E-8898-5E1C9A520A64}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="93" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -648,33 +648,33 @@
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="L1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1">
         <v>72</v>
@@ -689,16 +689,16 @@
         <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J2" s="6">
         <v>6.1238000000000001E-2</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="3" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1">
         <v>83</v>
@@ -735,15 +735,17 @@
       <c r="E3" s="1">
         <v>1342</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J3" s="5">
         <v>0.49880000000000002</v>
@@ -780,15 +782,17 @@
       <c r="E4" s="1">
         <v>2014</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J4" s="6">
         <v>1.4027E-3</v>
@@ -825,7 +829,7 @@
       <c r="E5" s="1">
         <v>3408</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="1"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -849,7 +853,7 @@
       <c r="E6" s="1">
         <v>6749</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="1"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -859,7 +863,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -890,11 +894,11 @@
         <v>1675</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5">
@@ -933,7 +937,7 @@
         <v>1829</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="5"/>
@@ -972,16 +976,16 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J10" s="6">
         <v>2.9493999999999999E-4</v>
@@ -1004,7 +1008,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -1020,7 +1024,7 @@
     </row>
     <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1">
         <v>132</v>
@@ -1034,15 +1038,17 @@
       <c r="E12" s="1">
         <v>654</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="G12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J12" s="7">
         <v>0.43380000000000002</v>
@@ -1065,40 +1071,40 @@
     </row>
     <row r="13" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1">
-        <v>200</v>
+        <v>14</v>
+      </c>
+      <c r="B13" s="12">
+        <v>198</v>
       </c>
       <c r="C13" s="1">
         <v>2014.5025220681</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="12">
         <v>2014.9995796553201</v>
       </c>
       <c r="E13" s="12">
-        <v>2743</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>2408</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="H13" s="7"/>
       <c r="I13" s="5"/>
       <c r="J13" s="6">
-        <v>0.1152</v>
+        <v>6.3862000000000002E-2</v>
       </c>
       <c r="K13" s="6">
-        <v>4.4113000000000003E-4</v>
+        <v>4.9762999999999999E-4</v>
       </c>
       <c r="L13" s="8">
-        <v>1.7870000000000001E-4</v>
+        <v>2.656E-4</v>
       </c>
       <c r="M13" s="8">
         <v>1E-10</v>
       </c>
       <c r="N13" s="8">
-        <v>6.4159999999999998E-4</v>
+        <v>7.3379999999999995E-4</v>
       </c>
       <c r="O13">
         <v>0.96</v>
@@ -1106,7 +1112,7 @@
     </row>
     <row r="14" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2">
         <v>200</v>
@@ -1120,15 +1126,17 @@
       <c r="E14" s="2">
         <v>1983</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="G14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J14" s="7">
         <v>0.1244</v>
@@ -1151,7 +1159,7 @@
     </row>
     <row r="15" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
         <v>195</v>
@@ -1165,15 +1173,17 @@
       <c r="E15" s="2">
         <v>4150</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="G15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J15" s="6">
         <v>1.8467000000000001E-2</v>
@@ -1196,7 +1206,7 @@
     </row>
     <row r="16" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1212,7 +1222,7 @@
     </row>
     <row r="17" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2">
         <v>1302</v>
@@ -1226,7 +1236,9 @@
       <c r="E17" s="2">
         <v>3464</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1236,7 +1248,7 @@
     </row>
     <row r="18" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2">
         <v>60</v>
@@ -1250,7 +1262,9 @@
       <c r="E18" s="2">
         <v>449</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1275,7 +1289,7 @@
     </row>
     <row r="19" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2">
         <v>200</v>
@@ -1289,10 +1303,12 @@
       <c r="E19" s="2">
         <v>2054</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="6">
@@ -1316,7 +1332,7 @@
     </row>
     <row r="20" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="2">
         <v>200</v>
@@ -1330,15 +1346,17 @@
       <c r="E20" s="2">
         <v>1967</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="G20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J20" s="6">
         <v>6.062E-2</v>
@@ -1361,7 +1379,7 @@
     </row>
     <row r="21" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="2">
         <v>116</v>
@@ -1375,15 +1393,17 @@
       <c r="E21" s="2">
         <v>1347</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="G21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J21" s="3">
         <v>0.31509999999999999</v>
@@ -1406,7 +1426,7 @@
     </row>
     <row r="22" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2">
         <v>22</v>
@@ -1420,13 +1440,15 @@
       <c r="E22" s="2">
         <v>1859</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J22" s="3">
         <v>0.97840000000000005</v>
@@ -1449,7 +1471,7 @@
     </row>
     <row r="23" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2">
         <v>409</v>
@@ -1463,13 +1485,15 @@
       <c r="E23" s="2">
         <v>4310</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J23" s="3">
         <v>0.69540000000000002</v>
@@ -1492,7 +1516,7 @@
     </row>
     <row r="24" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2">
         <v>253</v>
@@ -1506,15 +1530,17 @@
       <c r="E24" s="2">
         <v>2191</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="G24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J24" s="6">
         <v>6.1613000000000001E-2</v>

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melhs/Documents/GitHub/ebola-mutation-rates-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467DD24A-19DA-3E46-BAA5-9569EB6581BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7513DFD3-09EB-8946-A870-2C9EEF9E14D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="460" windowWidth="19920" windowHeight="16200" xr2:uid="{F2D6EE3F-4319-5541-9053-AF05C808FA98}"/>
+    <workbookView xWindow="0" yWindow="3740" windowWidth="19920" windowHeight="16200" xr2:uid="{F2D6EE3F-4319-5541-9053-AF05C808FA98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
   <si>
     <t>dataset</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>GenBank</t>
+  </si>
+  <si>
+    <t>2.8436E-3 (HPD: 1.7909E-3, 3.9106E-3)</t>
+  </si>
+  <si>
+    <t>8.4642E-3 (HPD:  5.0371E-3, 0.0114)</t>
   </si>
 </sst>
 </file>
@@ -268,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -289,6 +295,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -611,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D689EE26-5D76-804E-8898-5E1C9A520A64}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="93" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -862,14 +871,14 @@
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="1"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -1007,14 +1016,14 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="1"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -1069,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1088,9 +1097,15 @@
       <c r="F13" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="5"/>
+      <c r="G13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="J13" s="6">
         <v>6.3862000000000002E-2</v>
       </c>

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melhs/Documents/GitHub/ebola-mutation-rates-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7513DFD3-09EB-8946-A870-2C9EEF9E14D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B373981-4A2B-1A48-8441-CCD9C7EB60AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3740" windowWidth="19920" windowHeight="16200" xr2:uid="{F2D6EE3F-4319-5541-9053-AF05C808FA98}"/>
+    <workbookView xWindow="2220" yWindow="3540" windowWidth="19920" windowHeight="16200" xr2:uid="{F2D6EE3F-4319-5541-9053-AF05C808FA98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
     <t>dataset</t>
   </si>
@@ -220,12 +220,6 @@
   </si>
   <si>
     <t>GenBank</t>
-  </si>
-  <si>
-    <t>2.8436E-3 (HPD: 1.7909E-3, 3.9106E-3)</t>
-  </si>
-  <si>
-    <t>8.4642E-3 (HPD:  5.0371E-3, 0.0114)</t>
   </si>
 </sst>
 </file>
@@ -274,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -295,6 +289,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -621,7 +618,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -871,14 +868,14 @@
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="1"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -1016,14 +1013,14 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="1"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -1078,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1097,15 +1094,9 @@
       <c r="F13" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
       <c r="J13" s="6">
         <v>6.3862000000000002E-2</v>
       </c>

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melhs/Documents/GitHub/ebola-mutation-rates-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B373981-4A2B-1A48-8441-CCD9C7EB60AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABC43A5-88B9-AC4E-982F-079E123D9334}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="3540" windowWidth="19920" windowHeight="16200" xr2:uid="{F2D6EE3F-4319-5541-9053-AF05C808FA98}"/>
+    <workbookView xWindow="6540" yWindow="1700" windowWidth="19920" windowHeight="16200" xr2:uid="{F2D6EE3F-4319-5541-9053-AF05C808FA98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
   <si>
     <t>dataset</t>
   </si>
@@ -220,6 +220,51 @@
   </si>
   <si>
     <t>GenBank</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the congo</t>
+  </si>
+  <si>
+    <t>2014_all</t>
+  </si>
+  <si>
+    <t>2014_cladeA</t>
+  </si>
+  <si>
+    <t>2014_cladeB</t>
+  </si>
+  <si>
+    <t>2018_all</t>
+  </si>
+  <si>
+    <t>2018_cladeA</t>
+  </si>
+  <si>
+    <t>2018_cladeB</t>
+  </si>
+  <si>
+    <t>, 2.045e-02</t>
+  </si>
+  <si>
+    <t>2.3704E-3 (HPD: 1.4681E-3, 3.3499E-3)</t>
+  </si>
+  <si>
+    <t>5.5368E-5 (HPD: 8.5151E-9, 2.2983E-4)</t>
+  </si>
+  <si>
+    <t>1.619E-3 (HPD: 9.1303E-4, 2.3675E-3)</t>
+  </si>
+  <si>
+    <t>1.1344E-5 (HPD: 2.9726E-8, 3.1789E-5)</t>
+  </si>
+  <si>
+    <t>1.4242E-5 (HPD: 3.8708E-7,3.4389E-5)</t>
+  </si>
+  <si>
+    <t>2.0307E-5 (HPD: 3.7678E-7, 5.2182E-5)</t>
+  </si>
+  <si>
+    <t>1.4441E-5 (3.6761E-8, 4.4158E-5)</t>
   </si>
 </sst>
 </file>
@@ -268,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -301,6 +346,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D689EE26-5D76-804E-8898-5E1C9A520A64}">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="93" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="93" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -868,14 +917,14 @@
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="1"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -1013,14 +1062,14 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="1"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -1567,6 +1616,243 @@
         <v>1</v>
       </c>
     </row>
+    <row r="27" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="4">
+        <v>151</v>
+      </c>
+      <c r="C27">
+        <v>1976.5025220681</v>
+      </c>
+      <c r="D27">
+        <v>2018.7059688944901</v>
+      </c>
+      <c r="E27">
+        <v>3626</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0.50329999999999997</v>
+      </c>
+      <c r="K27" s="8">
+        <v>1.3175E-4</v>
+      </c>
+      <c r="L27" s="9">
+        <v>7.8750000000000003E-5</v>
+      </c>
+      <c r="M27" s="9">
+        <v>1E-10</v>
+      </c>
+      <c r="N27" s="9">
+        <v>1.8459999999999999E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>2014.45292139554</v>
+      </c>
+      <c r="D28">
+        <v>2014.7141656158001</v>
+      </c>
+      <c r="E28">
+        <v>2138</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" t="s">
+        <v>71</v>
+      </c>
+      <c r="J28">
+        <v>0.1653</v>
+      </c>
+      <c r="K28" s="8">
+        <v>1.1651000000000001E-3</v>
+      </c>
+      <c r="L28" s="9">
+        <v>2.5270000000000002E-3</v>
+      </c>
+      <c r="M28" s="9">
+        <v>1E-10</v>
+      </c>
+      <c r="N28" s="9">
+        <v>6.7200000000000003E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>2014.5025220681</v>
+      </c>
+      <c r="D29">
+        <v>2014.7141656158001</v>
+      </c>
+      <c r="E29">
+        <v>1584</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" t="s">
+        <v>72</v>
+      </c>
+      <c r="J29" s="8">
+        <v>1.7222E-4</v>
+      </c>
+      <c r="K29">
+        <v>-1E-4</v>
+      </c>
+      <c r="L29" s="9">
+        <v>1E-10</v>
+      </c>
+      <c r="M29" s="9">
+        <v>1E-10</v>
+      </c>
+      <c r="N29" s="9">
+        <v>1.658E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>2014.45292139554</v>
+      </c>
+      <c r="D30">
+        <v>2014.5052543085301</v>
+      </c>
+      <c r="E30">
+        <v>87</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30" t="s">
+        <v>76</v>
+      </c>
+      <c r="J30">
+        <v>0.44269999999999998</v>
+      </c>
+      <c r="K30" s="8">
+        <v>2.9234999999999999E-3</v>
+      </c>
+      <c r="L30" s="9">
+        <v>1.565E-3</v>
+      </c>
+      <c r="M30" s="9">
+        <v>1E-10</v>
+      </c>
+      <c r="N30" s="9">
+        <v>1.566E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31">
+        <v>80</v>
+      </c>
+      <c r="C31">
+        <v>2018.4119377889899</v>
+      </c>
+      <c r="D31">
+        <v>2018.7059688944901</v>
+      </c>
+      <c r="E31">
+        <v>1183</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" t="s">
+        <v>73</v>
+      </c>
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32">
+        <v>64</v>
+      </c>
+      <c r="C32">
+        <v>2018.61223203026</v>
+      </c>
+      <c r="D32">
+        <v>2018.7059688944901</v>
+      </c>
+      <c r="E32">
+        <v>833</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>2018.4119377889899</v>
+      </c>
+      <c r="D33">
+        <v>2018.47793190416</v>
+      </c>
+      <c r="E33">
+        <v>80</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33" t="s">
+        <v>75</v>
+      </c>
+      <c r="J33">
+        <v>0.26910000000000001</v>
+      </c>
+      <c r="K33" s="8">
+        <v>1.7419E-3</v>
+      </c>
+      <c r="L33" s="9">
+        <v>2.5249999999999999E-3</v>
+      </c>
+      <c r="M33" s="9">
+        <v>1E-10</v>
+      </c>
+      <c r="N33" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A7:F7"/>

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melhs/Documents/GitHub/ebola-mutation-rates-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABC43A5-88B9-AC4E-982F-079E123D9334}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30348242-A0AC-8B4F-970E-43A40F069380}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="1700" windowWidth="19920" windowHeight="16200" xr2:uid="{F2D6EE3F-4319-5541-9053-AF05C808FA98}"/>
+    <workbookView xWindow="5880" yWindow="6780" windowWidth="27240" windowHeight="11200" xr2:uid="{F2D6EE3F-4319-5541-9053-AF05C808FA98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
   <si>
     <t>dataset</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>1.4441E-5 (3.6761E-8, 4.4158E-5)</t>
+  </si>
+  <si>
+    <t>7.1098E-6 (HPD: 3.2876E-8, 2.4884E-5)</t>
   </si>
 </sst>
 </file>
@@ -666,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D689EE26-5D76-804E-8898-5E1C9A520A64}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="93" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="93" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1650,6 +1653,9 @@
       <c r="N27" s="9">
         <v>1.8459999999999999E-4</v>
       </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
@@ -1688,6 +1694,9 @@
       <c r="N28" s="9">
         <v>6.7200000000000003E-3</v>
       </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
@@ -1712,10 +1721,10 @@
         <v>72</v>
       </c>
       <c r="J29" s="8">
-        <v>1.7222E-4</v>
-      </c>
-      <c r="K29">
-        <v>-1E-4</v>
+        <v>0.24329999999999999</v>
+      </c>
+      <c r="K29" s="8">
+        <v>4.6214000000000003E-3</v>
       </c>
       <c r="L29" s="9">
         <v>1E-10</v>
@@ -1725,6 +1734,9 @@
       </c>
       <c r="N29" s="9">
         <v>1.658E-3</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="34" x14ac:dyDescent="0.2">
@@ -1746,6 +1758,9 @@
       <c r="F30" s="15" t="s">
         <v>62</v>
       </c>
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
       <c r="H30" t="s">
         <v>77</v>
       </c>
@@ -1766,6 +1781,9 @@
       </c>
       <c r="N30" s="9">
         <v>1.566E-2</v>
+      </c>
+      <c r="O30">
+        <v>0.98</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="17" x14ac:dyDescent="0.2">
@@ -1811,8 +1829,11 @@
       <c r="F32" s="15" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>69</v>
       </c>
@@ -1831,6 +1852,9 @@
       <c r="F33" s="15" t="s">
         <v>62</v>
       </c>
+      <c r="G33" t="s">
+        <v>7</v>
+      </c>
       <c r="H33" t="s">
         <v>74</v>
       </c>
@@ -1851,6 +1875,9 @@
       </c>
       <c r="N33" s="17" t="s">
         <v>70</v>
+      </c>
+      <c r="O33">
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melhs/Documents/GitHub/ebola-mutation-rates-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30348242-A0AC-8B4F-970E-43A40F069380}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2A8556-CCC1-3240-8F6A-3B4F43DB4C53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="6780" windowWidth="27240" windowHeight="11200" xr2:uid="{F2D6EE3F-4319-5541-9053-AF05C808FA98}"/>
+    <workbookView xWindow="11560" yWindow="1360" windowWidth="27240" windowHeight="11200" xr2:uid="{F2D6EE3F-4319-5541-9053-AF05C808FA98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="82">
   <si>
     <t>dataset</t>
   </si>
@@ -243,31 +243,40 @@
     <t>2018_cladeB</t>
   </si>
   <si>
-    <t>, 2.045e-02</t>
-  </si>
-  <si>
     <t>2.3704E-3 (HPD: 1.4681E-3, 3.3499E-3)</t>
   </si>
   <si>
-    <t>5.5368E-5 (HPD: 8.5151E-9, 2.2983E-4)</t>
-  </si>
-  <si>
     <t>1.619E-3 (HPD: 9.1303E-4, 2.3675E-3)</t>
   </si>
   <si>
-    <t>1.1344E-5 (HPD: 2.9726E-8, 3.1789E-5)</t>
-  </si>
-  <si>
-    <t>1.4242E-5 (HPD: 3.8708E-7,3.4389E-5)</t>
-  </si>
-  <si>
-    <t>2.0307E-5 (HPD: 3.7678E-7, 5.2182E-5)</t>
-  </si>
-  <si>
-    <t>1.4441E-5 (3.6761E-8, 4.4158E-5)</t>
-  </si>
-  <si>
-    <t>7.1098E-6 (HPD: 3.2876E-8, 2.4884E-5)</t>
+    <t>0.0132 (HPD: 3.8376E-3, 0.0241)</t>
+  </si>
+  <si>
+    <t>8.1319E-3 (HPD: 1.5997E-3, 0.0141)</t>
+  </si>
+  <si>
+    <t>4.882E-4 (HPD:1.2698E-4, 1.4813E-3)</t>
+  </si>
+  <si>
+    <t>1.6931E-4 (HPD: 7.932E-5, 3.0927E-4)</t>
+  </si>
+  <si>
+    <t>1.3202E-3 (HPD: 4.7638E-4, 2.22E-3)</t>
+  </si>
+  <si>
+    <t>1.2071 (HPD: 3.1668E-5, 1.5055E-4)</t>
+  </si>
+  <si>
+    <t>1.2643E-4 (HPD: 2.7964E-5, 1.1666E-4)</t>
+  </si>
+  <si>
+    <t>4.125E-5 (HPD: 1.992E-5, 6.6901E-5)</t>
+  </si>
+  <si>
+    <t>Strict clock+ Heterochronous</t>
+  </si>
+  <si>
+    <t>4.0356E-5 (HPD: 1.9687E-5, 8.009E-5)</t>
   </si>
 </sst>
 </file>
@@ -316,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -352,7 +361,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D689EE26-5D76-804E-8898-5E1C9A520A64}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="93" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="93" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1657,7 +1665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>64</v>
       </c>
@@ -1676,8 +1684,14 @@
       <c r="F28" s="15" t="s">
         <v>62</v>
       </c>
+      <c r="G28" s="15" t="s">
+        <v>8</v>
+      </c>
       <c r="H28" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="I28" t="s">
+        <v>72</v>
       </c>
       <c r="J28">
         <v>0.1653</v>
@@ -1698,7 +1712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>65</v>
       </c>
@@ -1717,8 +1731,14 @@
       <c r="F29" s="15" t="s">
         <v>62</v>
       </c>
+      <c r="G29" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="H29" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="I29" t="s">
+        <v>75</v>
       </c>
       <c r="J29" s="8">
         <v>0.24329999999999999</v>
@@ -1739,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>66</v>
       </c>
@@ -1758,14 +1778,14 @@
       <c r="F30" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G30" t="s">
-        <v>7</v>
+      <c r="G30" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="H30" t="s">
         <v>77</v>
       </c>
       <c r="I30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J30">
         <v>0.44269999999999998</v>
@@ -1786,7 +1806,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>67</v>
       </c>
@@ -1805,10 +1825,33 @@
       <c r="F31" s="15" t="s">
         <v>62</v>
       </c>
+      <c r="G31" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="H31" t="s">
+        <v>71</v>
+      </c>
+      <c r="I31" t="s">
         <v>73</v>
       </c>
-      <c r="L31" s="9"/>
+      <c r="J31" s="8">
+        <v>0.92079999999999995</v>
+      </c>
+      <c r="K31" s="9">
+        <v>2.9835999999999999E-3</v>
+      </c>
+      <c r="L31" s="9">
+        <v>7.7749999999999998E-4</v>
+      </c>
+      <c r="M31" s="9">
+        <v>1E-10</v>
+      </c>
+      <c r="N31" s="9">
+        <v>1.213E-2</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
@@ -1829,11 +1872,29 @@
       <c r="F32" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="H32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>76</v>
+      </c>
+      <c r="J32" s="9">
+        <v>4.5150000000000002E-4</v>
+      </c>
+      <c r="K32" s="9">
+        <v>1E-10</v>
+      </c>
+      <c r="L32" s="9">
+        <v>3.3430000000000001E-3</v>
+      </c>
+      <c r="M32" s="9">
+        <v>0.32769999999999999</v>
+      </c>
+      <c r="N32" s="8">
+        <v>2.3548000000000002E-3</v>
+      </c>
+      <c r="O32">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>69</v>
       </c>
@@ -1852,14 +1913,14 @@
       <c r="F33" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G33" t="s">
-        <v>7</v>
+      <c r="G33" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="H33" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I33" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J33">
         <v>0.26910000000000001</v>
@@ -1873,8 +1934,8 @@
       <c r="M33" s="9">
         <v>1E-10</v>
       </c>
-      <c r="N33" s="17" t="s">
-        <v>70</v>
+      <c r="N33" s="9">
+        <v>2.0449999999999999E-2</v>
       </c>
       <c r="O33">
         <v>0.99</v>

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melhs/Documents/GitHub/ebola-mutation-rates-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2A8556-CCC1-3240-8F6A-3B4F43DB4C53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BD8CEF-F96F-E041-973E-C6B0BA6F07CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11560" yWindow="1360" windowWidth="27240" windowHeight="11200" xr2:uid="{F2D6EE3F-4319-5541-9053-AF05C808FA98}"/>
+    <workbookView xWindow="1540" yWindow="1300" windowWidth="16080" windowHeight="11200" xr2:uid="{F2D6EE3F-4319-5541-9053-AF05C808FA98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="84">
   <si>
     <t>dataset</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t>4.0356E-5 (HPD: 1.9687E-5, 8.009E-5)</t>
+  </si>
+  <si>
+    <t>2.8338E-3 (HPD: 1.8504E-3, 3.9237E-3)</t>
+  </si>
+  <si>
+    <t>8.4171E-3 (HPD:4.731E-3, 0.0119)</t>
   </si>
 </sst>
 </file>
@@ -677,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D689EE26-5D76-804E-8898-5E1C9A520A64}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="93" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="92" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1135,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1154,9 +1160,15 @@
       <c r="F13" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
+      <c r="G13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="J13" s="6">
         <v>6.3862000000000002E-2</v>
       </c>
@@ -1312,7 +1324,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1331,7 +1343,9 @@
       <c r="F18" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="14" t="s">
+        <v>10</v>
+      </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="6">
@@ -1643,7 +1657,7 @@
       <c r="E27">
         <v>3626</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="14" t="s">
         <v>62</v>
       </c>
       <c r="J27" s="3">
@@ -1681,10 +1695,10 @@
       <c r="E28">
         <v>2138</v>
       </c>
-      <c r="F28" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="15" t="s">
+      <c r="F28" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="14" t="s">
         <v>8</v>
       </c>
       <c r="H28" t="s">
@@ -1712,7 +1726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>65</v>
       </c>
@@ -1728,11 +1742,11 @@
       <c r="E29">
         <v>1584</v>
       </c>
-      <c r="F29" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>80</v>
+      <c r="F29" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="H29" t="s">
         <v>74</v>
@@ -1775,10 +1789,10 @@
       <c r="E30">
         <v>87</v>
       </c>
-      <c r="F30" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="15" t="s">
+      <c r="F30" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="14" t="s">
         <v>8</v>
       </c>
       <c r="H30" t="s">
@@ -1822,10 +1836,10 @@
       <c r="E31">
         <v>1183</v>
       </c>
-      <c r="F31" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" s="15" t="s">
+      <c r="F31" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="14" t="s">
         <v>10</v>
       </c>
       <c r="H31" t="s">
@@ -1869,7 +1883,7 @@
       <c r="E32">
         <v>833</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="14" t="s">
         <v>62</v>
       </c>
       <c r="I32" t="s">
@@ -1910,10 +1924,10 @@
       <c r="E33">
         <v>80</v>
       </c>
-      <c r="F33" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="15" t="s">
+      <c r="F33" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="14" t="s">
         <v>80</v>
       </c>
       <c r="H33" t="s">
